--- a/BackTest/2019-10-21 BackTest LRC.xlsx
+++ b/BackTest/2019-10-21 BackTest LRC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>36.53</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
       <c r="L13" t="n">
         <v>36.57</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.300000000000011</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L14" t="n">
         <v>36.56</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.700000000000017</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L15" t="n">
         <v>36.59</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.800000000000011</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>19.99999999999943</v>
+      </c>
       <c r="L16" t="n">
         <v>36.63000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.800000000000011</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>19.99999999999943</v>
+      </c>
       <c r="L17" t="n">
         <v>36.65000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.800000000000011</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>19.99999999999943</v>
+      </c>
       <c r="L18" t="n">
         <v>36.67</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.800000000000011</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>19.99999999999943</v>
+      </c>
       <c r="L19" t="n">
         <v>36.69</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.800000000000011</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>11.11111111111041</v>
+      </c>
       <c r="L20" t="n">
         <v>36.71</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.200000000000017</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>38.46153846153813</v>
+      </c>
       <c r="L21" t="n">
         <v>36.76000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.500000000000021</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>12.49999999999961</v>
+      </c>
       <c r="L22" t="n">
         <v>36.78</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.600000000000023</v>
       </c>
       <c r="K23" t="n">
-        <v>23.80952380952355</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L23" t="n">
         <v>36.79000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>2.600000000000023</v>
       </c>
       <c r="K24" t="n">
-        <v>19.99999999999972</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L24" t="n">
         <v>36.84</v>
